--- a/db/gums seed data v5.xlsx
+++ b/db/gums seed data v5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="40" windowWidth="34500" windowHeight="19240" tabRatio="500"/>
+    <workbookView xWindow="3100" yWindow="0" windowWidth="34500" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="591">
   <si>
     <t>Trident</t>
   </si>
@@ -383,9 +383,6 @@
     <t>012546600026</t>
   </si>
   <si>
-    <t>Kraft Foods Cadburry</t>
-  </si>
-  <si>
     <t>Mars Inc Wrigley</t>
   </si>
   <si>
@@ -1766,7 +1763,37 @@
     <t>jpg</t>
   </si>
   <si>
-    <t>UP 2 U</t>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>Dirol</t>
+  </si>
+  <si>
+    <t>Stimorol</t>
+  </si>
+  <si>
+    <t>Kraft Foods Cadbury Hollywood</t>
+  </si>
+  <si>
+    <t>leading French chewing gum brand</t>
+  </si>
+  <si>
+    <t>Kraft Foods Cadbury</t>
+  </si>
+  <si>
+    <t>Kraft Foods Cadbury Gumlink Dandy</t>
+  </si>
+  <si>
+    <t>Ice Breakers Ice Cubes</t>
+  </si>
+  <si>
+    <t>Double Bubble</t>
+  </si>
+  <si>
+    <t>bazooka joe (made by "Topps")</t>
+  </si>
+  <si>
+    <t>Fruit Stripe (made by "Nabisco Inc")</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1868,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="634">
+  <cellStyleXfs count="638">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2318,6 +2345,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2513,7 +2544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="634">
+  <cellStyles count="638">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2909,6 +2940,10 @@
     <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3476,11 +3511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3500,51 +3535,51 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>118</v>
@@ -3553,19 +3588,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>116</v>
@@ -3578,15 +3613,15 @@
         <v>trident_layers_cool_mint_melon_fresco.png</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>119</v>
@@ -3595,19 +3630,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>116</v>
@@ -3620,36 +3655,36 @@
         <v>trident_layers_wild_strawberry_tangy_citrus.png</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>116</v>
@@ -3662,36 +3697,36 @@
         <v>trident_layers_green_apple_golden_pineapple.png</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>116</v>
@@ -3704,36 +3739,36 @@
         <v>trident_layers_orchard_peach_ripe_mango.png</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>116</v>
@@ -3746,36 +3781,36 @@
         <v>trident_layers_sweet_cherry_island_lime.png</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>116</v>
@@ -3788,33 +3823,33 @@
         <v>trident_layers_juicy_berry_tangy_tangerine.png</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>116</v>
@@ -3827,33 +3862,33 @@
         <v>trident_vitality_zen.png</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>116</v>
@@ -3866,33 +3901,33 @@
         <v>trident_vitality_balance.png</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>116</v>
@@ -3905,33 +3940,33 @@
         <v>trident_vitality_vigorate.png</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>116</v>
@@ -3944,33 +3979,33 @@
         <v>trident_vitality_rejuve.png</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>116</v>
@@ -3983,36 +4018,36 @@
         <v>trident_vitality_awaken.png</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>116</v>
@@ -4025,36 +4060,36 @@
         <v>trident_extra_care_spearmint.png</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>116</v>
@@ -4067,36 +4102,36 @@
         <v>trident_extra_care_peppermint.png</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>116</v>
@@ -4109,36 +4144,36 @@
         <v>trident_extra_care_cool_mint.png</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>116</v>
@@ -4151,36 +4186,36 @@
         <v>trident_extra_care_cool_citrus.jpg</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>116</v>
@@ -4193,36 +4228,36 @@
         <v>trident_splash_orange_swirl.jpg</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>116</v>
@@ -4235,36 +4270,36 @@
         <v>trident_splash_pucker_me_berry.jpg</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>116</v>
@@ -4277,36 +4312,36 @@
         <v>trident_splash_peppermint_swirl.jpg</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>116</v>
@@ -4319,36 +4354,36 @@
         <v>trident_splash_strawberry_lime.jpg</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>116</v>
@@ -4361,36 +4396,36 @@
         <v>trident_splash_apple_rasberry.jpg</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>116</v>
@@ -4403,24 +4438,24 @@
         <v>trident_splash_citrus_blackberry.jpg</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>0</v>
@@ -4429,10 +4464,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>116</v>
@@ -4445,24 +4480,24 @@
         <v>trident_wintergreen.png</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>0</v>
@@ -4471,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>116</v>
@@ -4487,24 +4522,24 @@
         <v>trident_strawberry_twist.png</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>0</v>
@@ -4513,10 +4548,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>116</v>
@@ -4529,24 +4564,24 @@
         <v>trident_cinnamon.png</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>0</v>
@@ -4555,10 +4590,10 @@
         <v>14</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>116</v>
@@ -4571,24 +4606,24 @@
         <v>trident_bubblegum.png</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>0</v>
@@ -4597,10 +4632,10 @@
         <v>15</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>116</v>
@@ -4613,24 +4648,24 @@
         <v>trident_minty_sweet_twist.png</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>0</v>
@@ -4639,10 +4674,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>116</v>
@@ -4655,24 +4690,24 @@
         <v>trident_original_flavor.png</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>0</v>
@@ -4681,10 +4716,10 @@
         <v>17</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>116</v>
@@ -4697,24 +4732,24 @@
         <v>trident_passionberry_twist.png</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>0</v>
@@ -4723,10 +4758,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>116</v>
@@ -4739,24 +4774,24 @@
         <v>trident_spearmint.png</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>0</v>
@@ -4765,10 +4800,10 @@
         <v>18</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>116</v>
@@ -4781,24 +4816,24 @@
         <v>trident_tropical_twist.png</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
@@ -4807,10 +4842,10 @@
         <v>19</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>116</v>
@@ -4823,24 +4858,24 @@
         <v>trident_watermelon_twist.png</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>0</v>
@@ -4849,10 +4884,10 @@
         <v>20</v>
       </c>
       <c r="H33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>116</v>
@@ -4865,36 +4900,36 @@
         <v>trident_wild_blueberry_twist.png</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>116</v>
@@ -4907,36 +4942,36 @@
         <v>trident_white_micro_crystals.png</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>116</v>
@@ -4949,36 +4984,36 @@
         <v>trident_white_cool_mangoberry.jpg</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>116</v>
@@ -4991,36 +5026,36 @@
         <v>trident_white_peppermint.png</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>116</v>
@@ -5033,36 +5068,36 @@
         <v>trident_white_spearmint.png</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>116</v>
@@ -5075,36 +5110,36 @@
         <v>trident_white_cool_colada.jpg</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>116</v>
@@ -5117,36 +5152,36 @@
         <v>trident_white_wintergreen.png</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>116</v>
@@ -5159,36 +5194,36 @@
         <v>trident_white_cool_rush.png</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>116</v>
@@ -5201,36 +5236,36 @@
         <v>trident_white_cinnamon_tingle.jpg</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>116</v>
@@ -5243,33 +5278,33 @@
         <v>trident_white_cool_bubble.jpg</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>116</v>
@@ -5282,33 +5317,33 @@
         <v>dentyne_ice_peppermint.png</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="9">
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>116</v>
@@ -5321,33 +5356,33 @@
         <v>dentyne_ice_spearmint.png</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>116</v>
@@ -5360,33 +5395,33 @@
         <v>dentyne_ice_arctic_chill.png</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>116</v>
@@ -5399,33 +5434,33 @@
         <v>dentyne_ice_mint_frost.png</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>116</v>
@@ -5438,36 +5473,36 @@
         <v>dentyne_fire_spicy_cinnamon.png</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>116</v>
@@ -5480,36 +5515,36 @@
         <v>dentyne_pure_mint_with_melon.png</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>116</v>
@@ -5522,36 +5557,36 @@
         <v>dentyne_pure_mint_with_herbal.png</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>116</v>
@@ -5564,33 +5599,33 @@
         <v>dentyne_pure_mint_with_citrus.png</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>116</v>
@@ -5603,33 +5638,33 @@
         <v>stride_spark_kinetic_fruit.jpg</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>116</v>
@@ -5642,33 +5677,33 @@
         <v>stride_spark_kinetic_mint.jpg</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>116</v>
@@ -5681,33 +5716,33 @@
         <v>stride_spark_kinetic_berry.jpg</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>116</v>
@@ -5720,33 +5755,33 @@
         <v>stride_shift_berry_to_mint.jpg</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>116</v>
@@ -5759,33 +5794,33 @@
         <v>stride_shift_citrus_to_mint.jpg</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>116</v>
@@ -5798,33 +5833,33 @@
         <v>stride_2_winterblue.jpg</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>116</v>
@@ -5837,33 +5872,33 @@
         <v>stride_2_uber_bubble.jpg</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>101</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>116</v>
@@ -5876,33 +5911,33 @@
         <v>stride_2_sweet_peppermint.jpg</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>116</v>
@@ -5915,33 +5950,33 @@
         <v>stride_2_sweet_cinnamon.jpg</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>116</v>
@@ -5954,33 +5989,33 @@
         <v>stride_2_sweet_berry.jpg</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>116</v>
@@ -5993,33 +6028,33 @@
         <v>stride_2_sweet_mint.jpg</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>116</v>
@@ -6032,33 +6067,33 @@
         <v>stride_2_spearmint.jpg</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>116</v>
@@ -6071,33 +6106,33 @@
         <v>stride_2_nonstop_mint.jpg</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>116</v>
@@ -6110,33 +6145,33 @@
         <v>stride_2_forever_fruit.jpg</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>116</v>
@@ -6149,24 +6184,24 @@
         <v>stride_mintacular.jpg</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>97</v>
@@ -6175,7 +6210,7 @@
         <v>104</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>116</v>
@@ -6184,28 +6219,28 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" ref="L66:L123" si="1">CONCATENATE(A66,".",M66)</f>
+        <f t="shared" ref="L66:L117" si="1">CONCATENATE(A66,".",M66)</f>
         <v>stride_mega_mystery.jpg</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>97</v>
@@ -6214,7 +6249,7 @@
         <v>98</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>116</v>
@@ -6227,33 +6262,33 @@
         <v>stride_whitemint.jpg</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>116</v>
@@ -6266,33 +6301,33 @@
         <v>stride_tropical_trance.jpg</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>116</v>
@@ -6305,24 +6340,24 @@
         <v>stride_eternal_melon.jpg</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>97</v>
@@ -6331,7 +6366,7 @@
         <v>103</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>116</v>
@@ -6344,24 +6379,24 @@
         <v>stride_nonstop_mint.jpg</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>97</v>
@@ -6370,7 +6405,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>116</v>
@@ -6383,24 +6418,24 @@
         <v>stride_winterblue.jpg</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>97</v>
@@ -6409,7 +6444,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>116</v>
@@ -6422,24 +6457,24 @@
         <v>stride_spearmint.jpg</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>97</v>
@@ -6448,7 +6483,7 @@
         <v>101</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>116</v>
@@ -6461,24 +6496,24 @@
         <v>stride_sweet_peppermint.jpg</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>97</v>
@@ -6487,7 +6522,7 @@
         <v>69</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>116</v>
@@ -6500,24 +6535,24 @@
         <v>stride_sweet_berry.jpg</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>97</v>
@@ -6526,7 +6561,7 @@
         <v>109</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>116</v>
@@ -6539,24 +6574,24 @@
         <v>stride_uber_bubble.jpg</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>97</v>
@@ -6565,7 +6600,7 @@
         <v>102</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>116</v>
@@ -6578,24 +6613,24 @@
         <v>stride_sweet_cinnamon.jpg</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>97</v>
@@ -6604,7 +6639,7 @@
         <v>105</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>116</v>
@@ -6617,33 +6652,33 @@
         <v>stride_forever_fruit.jpg</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>116</v>
@@ -6656,33 +6691,33 @@
         <v>stride_always_mandarin.jpg</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>111</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>116</v>
@@ -6695,33 +6730,33 @@
         <v>adams_chiclets_fruit.jpg</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>116</v>
@@ -6734,33 +6769,33 @@
         <v>adams_chiclets_peppermint.jpg</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>113</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>116</v>
@@ -6773,33 +6808,33 @@
         <v>adams_chiclets_spearmint.jpg</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>116</v>
@@ -6812,33 +6847,33 @@
         <v>extra_dessert_delights_apple_pie.png</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>116</v>
@@ -6851,33 +6886,33 @@
         <v>extra_dessert_delights_orange_creme_pop.png</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>116</v>
@@ -6890,33 +6925,33 @@
         <v>extra_dessert_delights_mint_chocolate_chip.png</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>116</v>
@@ -6929,33 +6964,33 @@
         <v>extra_dessert_delights_strawberry_shortcake.png</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>116</v>
@@ -6968,33 +7003,33 @@
         <v>extra_dessert_delights_key_lime_pie.png</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>116</v>
@@ -7007,33 +7042,33 @@
         <v>extra_dessert_delights_root_beer_float.png</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>116</v>
@@ -7046,33 +7081,33 @@
         <v>extra_dessert_delights_rainbow_sherbert.png</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>116</v>
@@ -7085,33 +7120,33 @@
         <v>extra_fruit_sensations_sweet_watermelon.png</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>116</v>
@@ -7124,24 +7159,24 @@
         <v>extra_fruit_sensations_sweet_tropical.png</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>21</v>
@@ -7150,7 +7185,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>116</v>
@@ -7163,24 +7198,24 @@
         <v>extra_spearmint.png</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>21</v>
@@ -7189,7 +7224,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>116</v>
@@ -7202,24 +7237,24 @@
         <v>extra_peppermint.png</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>21</v>
@@ -7228,7 +7263,7 @@
         <v>28</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>116</v>
@@ -7241,24 +7276,24 @@
         <v>extra_polar_ice.png</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>21</v>
@@ -7267,7 +7302,7 @@
         <v>29</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>116</v>
@@ -7280,24 +7315,24 @@
         <v>extra_smooth_mint.png</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>21</v>
@@ -7306,7 +7341,7 @@
         <v>30</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>116</v>
@@ -7319,24 +7354,24 @@
         <v>extra_winterfresh.png</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>21</v>
@@ -7345,7 +7380,7 @@
         <v>31</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>116</v>
@@ -7358,24 +7393,24 @@
         <v>extra_classic_bubble.png</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>49</v>
@@ -7384,7 +7419,7 @@
         <v>38</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>116</v>
@@ -7397,24 +7432,24 @@
         <v>5_gum_rain.jpg</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>49</v>
@@ -7423,7 +7458,7 @@
         <v>39</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>116</v>
@@ -7436,24 +7471,24 @@
         <v>5_gum_cobalt.jpg</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>49</v>
@@ -7462,7 +7497,7 @@
         <v>50</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>116</v>
@@ -7475,24 +7510,24 @@
         <v>5_gum_flare.jpg</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>49</v>
@@ -7501,7 +7536,7 @@
         <v>40</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>116</v>
@@ -7514,24 +7549,24 @@
         <v>5_gum_elixir.jpg</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>49</v>
@@ -7540,7 +7575,7 @@
         <v>41</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>116</v>
@@ -7553,24 +7588,24 @@
         <v>5_gum_solstice.jpg</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>49</v>
@@ -7579,7 +7614,7 @@
         <v>43</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>116</v>
@@ -7592,24 +7627,24 @@
         <v>5_gum_react_fruit.jpg</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>49</v>
@@ -7618,7 +7653,7 @@
         <v>42</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>116</v>
@@ -7631,24 +7666,24 @@
         <v>5_gum_react_mint.jpg</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>49</v>
@@ -7657,7 +7692,7 @@
         <v>44</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>116</v>
@@ -7670,24 +7705,24 @@
         <v>5_gum_prism.jpg</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>49</v>
@@ -7696,7 +7731,7 @@
         <v>45</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>116</v>
@@ -7709,24 +7744,24 @@
         <v>5_gum_vortex.jpg</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>49</v>
@@ -7735,7 +7770,7 @@
         <v>46</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>116</v>
@@ -7748,24 +7783,24 @@
         <v>5_gum_swerve.jpg</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>49</v>
@@ -7774,7 +7809,7 @@
         <v>47</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>116</v>
@@ -7787,24 +7822,24 @@
         <v>5_gum_rpm_fruit.jpg</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>49</v>
@@ -7813,7 +7848,7 @@
         <v>48</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>116</v>
@@ -7826,33 +7861,33 @@
         <v>5_gum_rpm_mint.jpg</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>116</v>
@@ -7865,33 +7900,33 @@
         <v>wrigleys_big_red_cinnamon.jpg</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>116</v>
@@ -7904,24 +7939,24 @@
         <v>wrigleys_doublemint_mint.jpg</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>51</v>
@@ -7930,7 +7965,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>116</v>
@@ -7943,24 +7978,24 @@
         <v>eclipse_spearmint.jpg</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>51</v>
@@ -7969,7 +8004,7 @@
         <v>28</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>116</v>
@@ -7982,24 +8017,24 @@
         <v>eclipse_polar_ice.jpg</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>51</v>
@@ -8008,7 +8043,7 @@
         <v>6</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>116</v>
@@ -8021,24 +8056,24 @@
         <v>eclipse_peppermint.jpg</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>51</v>
@@ -8047,7 +8082,7 @@
         <v>52</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>116</v>
@@ -8060,24 +8095,24 @@
         <v>eclipse_winterfrost.jpg</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>54</v>
@@ -8086,7 +8121,7 @@
         <v>6</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>116</v>
@@ -8099,24 +8134,24 @@
         <v>freedent_peppermint.jpg</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>54</v>
@@ -8125,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>116</v>
@@ -8138,24 +8173,24 @@
         <v>freedent_spearmint.jpg</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>54</v>
@@ -8164,7 +8199,7 @@
         <v>30</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>116</v>
@@ -8177,27 +8212,27 @@
         <v>freedent_winterfresh.jpg</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>55</v>
@@ -8211,22 +8246,22 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>56</v>
@@ -8240,22 +8275,22 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>57</v>
@@ -8269,22 +8304,22 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>58</v>
@@ -8298,22 +8333,22 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>59</v>
@@ -8327,22 +8362,22 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>60</v>
@@ -8356,22 +8391,22 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>61</v>
@@ -8385,22 +8420,22 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>62</v>
@@ -8414,22 +8449,22 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>63</v>
@@ -8443,22 +8478,22 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>64</v>
@@ -8472,22 +8507,22 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>58</v>
@@ -8501,22 +8536,22 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>65</v>
@@ -8530,22 +8565,22 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>66</v>
@@ -8559,22 +8594,22 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>67</v>
@@ -8588,22 +8623,22 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>68</v>
@@ -8617,22 +8652,22 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>69</v>
@@ -8646,22 +8681,22 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>70</v>
@@ -8675,19 +8710,19 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D135" s="4">
         <v>1</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>71</v>
@@ -8704,19 +8739,19 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D136" s="4">
         <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>71</v>
@@ -8733,19 +8768,19 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D137" s="4">
         <v>1</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>71</v>
@@ -8762,19 +8797,19 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D138" s="4">
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>71</v>
@@ -8791,19 +8826,19 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D139" s="4">
         <v>1</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>71</v>
@@ -8820,19 +8855,19 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D140" s="4">
         <v>1</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>71</v>
@@ -8849,19 +8884,19 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D141" s="4">
         <v>1</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>71</v>
@@ -8878,19 +8913,19 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D142" s="4">
         <v>1</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>71</v>
@@ -8907,19 +8942,19 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D143" s="4">
         <v>1</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>71</v>
@@ -8936,19 +8971,19 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>71</v>
@@ -8965,19 +9000,19 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>71</v>
@@ -8994,22 +9029,22 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D146" s="4">
         <v>1</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>81</v>
@@ -9023,22 +9058,22 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>82</v>
@@ -9052,22 +9087,22 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>83</v>
@@ -9081,22 +9116,22 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>84</v>
@@ -9110,22 +9145,22 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>85</v>
@@ -9139,22 +9174,22 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>72</v>
@@ -9168,22 +9203,22 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>6</v>
@@ -9197,22 +9232,22 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>5</v>
@@ -9226,22 +9261,22 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>30</v>
@@ -9255,22 +9290,22 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>5</v>
@@ -9284,11 +9319,11 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="4" t="str">
-        <f t="shared" ref="A156:A164" si="2">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(F156," ","_"),"_",SUBSTITUTE(G156," ","_"))),"'","")</f>
+        <f t="shared" ref="A156:A163" si="2">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(F156," ","_"),"_",SUBSTITUTE(G156," ","_"))),"'","")</f>
         <v>_</v>
       </c>
       <c r="B156" s="7" t="str">
-        <f t="shared" ref="B156:B172" si="3">CONCATENATE(F156," ",G156)</f>
+        <f t="shared" ref="B156:B176" si="3">CONCATENATE(F156," ",G156)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -9336,15 +9371,13 @@
     <row r="161" spans="1:10">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>up_2_u_</v>
+        <v>_</v>
       </c>
       <c r="B161" s="7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">UP 2 U </v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>581</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="4" t="str">
@@ -9367,205 +9400,150 @@
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>_</v>
-      </c>
-      <c r="B164" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+      <c r="A164" s="13" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="4" t="s">
+    <row r="168" spans="1:10">
+      <c r="A168" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="4" t="s">
+    <row r="169" spans="1:10">
+      <c r="A169" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="4" t="s">
-        <v>214</v>
+      <c r="A170" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="4" t="s">
-        <v>245</v>
+      <c r="A171" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:10">
-      <c r="B172" s="7" t="str">
+      <c r="A172" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="B176" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Trident Sweet Kicks Chocolate Mint</v>
       </c>
-      <c r="D172" s="4">
-        <v>0</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J172" s="4" t="s">
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="D173" s="4">
-        <v>1</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="D174" s="4">
-        <v>0</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="D175" s="4">
-        <v>0</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="D176" s="4">
-        <v>0</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="J176" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="4:10">
       <c r="D177" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="4:10">
       <c r="D178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="4:10">
       <c r="D179" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="4:10">
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="4:10">
@@ -9573,16 +9551,16 @@
         <v>0</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="4:10">
@@ -9590,16 +9568,16 @@
         <v>1</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="4:10">
@@ -9607,16 +9585,16 @@
         <v>1</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="4:10">
@@ -9624,33 +9602,33 @@
         <v>1</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="4:10">
       <c r="D185" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="4:10">
@@ -9658,16 +9636,16 @@
         <v>1</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="4:10">
@@ -9675,16 +9653,16 @@
         <v>1</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="4:10">
@@ -9692,63 +9670,166 @@
         <v>1</v>
       </c>
       <c r="E188" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="4:10">
+      <c r="D189" s="4">
+        <v>1</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="4:10">
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="4:10">
+      <c r="D191" s="4">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="4:10">
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7">
+      <c r="G193" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F188" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="189" spans="4:10">
-      <c r="G189" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="193" spans="3:7">
-      <c r="E193" s="4" t="s">
+    </row>
+    <row r="197" spans="3:7">
+      <c r="E197" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7">
+      <c r="E198" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7">
+      <c r="E199" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="3:7">
-      <c r="E194" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="3:7">
-      <c r="E195" s="4" t="s">
+    <row r="200" spans="3:7">
+      <c r="E200" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="3:7">
-      <c r="E196" s="4" t="s">
+    <row r="202" spans="3:7">
+      <c r="F202" s="9"/>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="C206" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D206" s="4">
+        <v>1</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="202" spans="3:7">
-      <c r="C202" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D202" s="4">
-        <v>1</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G202" s="4" t="s">
+      <c r="G206" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6">
+      <c r="E214" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6">
+      <c r="E215" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6">
+      <c r="E216" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6">
+      <c r="E220" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G189" r:id="rId1"/>
+    <hyperlink ref="G193" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9841,481 +9922,481 @@
     <row r="1" spans="1:1">
       <c r="A1" t="str">
         <f>CONCATENATE(Sheet1!A2,"|",Sheet1!B2,"|",Sheet1!C2,"|",Sheet1!D2,"|",Sheet1!E2,"|",Sheet1!F2,"|",Sheet1!G2,"|",Sheet1!H2,"|",Sheet1!I2,"|",Sheet1!J2,"|",Sheet1!K2,"|",Sheet1!L2)</f>
-        <v>trident_layers_cool_mint_melon_fresco|Trident Layers Cool Mint + Melon Fresco (TM)|012546600187|1|Kraft Foods Cadburry|Trident Layers|Cool Mint + Melon Fresco|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_cool_mint_melon_fresco.png</v>
+        <v>trident_layers_cool_mint_melon_fresco|Trident Layers Cool Mint + Melon Fresco (TM)|012546600187|1|Kraft Foods Cadbury|Trident Layers|Cool Mint + Melon Fresco|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_cool_mint_melon_fresco.png</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f>CONCATENATE(Sheet1!A3,"|",Sheet1!B3,"|",Sheet1!C3,"|",Sheet1!D3,"|",Sheet1!E3,"|",Sheet1!F3,"|",Sheet1!G3,"|",Sheet1!H3,"|",Sheet1!I3,"|",Sheet1!J3,"|",Sheet1!K3,"|",Sheet1!L3)</f>
-        <v>trident_layers_wild_strawberry_tangy_citrus|Trident Layers Wild Strawberry + Tangy Citrus (R)|012546600026|1|Kraft Foods Cadburry|Trident Layers|Wild Strawberry + Tangy Citrus|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_wild_strawberry_tangy_citrus.png</v>
+        <v>trident_layers_wild_strawberry_tangy_citrus|Trident Layers Wild Strawberry + Tangy Citrus (R)|012546600026|1|Kraft Foods Cadbury|Trident Layers|Wild Strawberry + Tangy Citrus|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_wild_strawberry_tangy_citrus.png</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="str">
         <f>CONCATENATE(Sheet1!A4,"|",Sheet1!B4,"|",Sheet1!C4,"|",Sheet1!D4,"|",Sheet1!E4,"|",Sheet1!F4,"|",Sheet1!G4,"|",Sheet1!H4,"|",Sheet1!I4,"|",Sheet1!J4,"|",Sheet1!K4,"|",Sheet1!L4)</f>
-        <v>trident_layers_green_apple_golden_pineapple|Trident Layers Green Apple + Golden Pineapple (C)|0|1|Kraft Foods Cadburry|Trident Layers|Green Apple + Golden Pineapple|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_green_apple_golden_pineapple.png</v>
+        <v>trident_layers_green_apple_golden_pineapple|Trident Layers Green Apple + Golden Pineapple (C)|0|1|Kraft Foods Cadbury|Trident Layers|Green Apple + Golden Pineapple|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_green_apple_golden_pineapple.png</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="str">
         <f>CONCATENATE(Sheet1!A5,"|",Sheet1!B5,"|",Sheet1!C5,"|",Sheet1!D5,"|",Sheet1!E5,"|",Sheet1!F5,"|",Sheet1!G5,"|",Sheet1!H5,"|",Sheet1!I5,"|",Sheet1!J5,"|",Sheet1!K5,"|",Sheet1!L5)</f>
-        <v>trident_layers_orchard_peach_ripe_mango|Trident Layers (R) Orchard (C) Peach + Ripe Mango (TM)|0|1|Kraft Foods Cadburry|Trident Layers|Orchard Peach + Ripe Mango|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_orchard_peach_ripe_mango.png</v>
+        <v>trident_layers_orchard_peach_ripe_mango|Trident Layers (R) Orchard (C) Peach + Ripe Mango (TM)|0|1|Kraft Foods Cadbury|Trident Layers|Orchard Peach + Ripe Mango|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_orchard_peach_ripe_mango.png</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="str">
         <f>CONCATENATE(Sheet1!A6,"|",Sheet1!B6,"|",Sheet1!C6,"|",Sheet1!D6,"|",Sheet1!E6,"|",Sheet1!F6,"|",Sheet1!G6,"|",Sheet1!H6,"|",Sheet1!I6,"|",Sheet1!J6,"|",Sheet1!K6,"|",Sheet1!L6)</f>
-        <v>trident_layers_sweet_cherry_island_lime|Trident Layers Sweet Cherry + Island Lime|0|1|Kraft Foods Cadburry|Trident Layers|Sweet Cherry + Island Lime|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_sweet_cherry_island_lime.png</v>
+        <v>trident_layers_sweet_cherry_island_lime|Trident Layers Sweet Cherry + Island Lime|0|1|Kraft Foods Cadbury|Trident Layers|Sweet Cherry + Island Lime|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_sweet_cherry_island_lime.png</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="str">
         <f>CONCATENATE(Sheet1!A7,"|",Sheet1!B7,"|",Sheet1!C7,"|",Sheet1!D7,"|",Sheet1!E7,"|",Sheet1!F7,"|",Sheet1!G7,"|",Sheet1!H7,"|",Sheet1!I7,"|",Sheet1!J7,"|",Sheet1!K7,"|",Sheet1!L7)</f>
-        <v>trident_layers_juicy_berry_tangy_tangerine|Trident Layers Juicy Berry + Tangy Tangerine|0|1|Kraft Foods Cadburry|Trident Layers|Juicy Berry + Tangy Tangerine|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_juicy_berry_tangy_tangerine.png</v>
+        <v>trident_layers_juicy_berry_tangy_tangerine|Trident Layers Juicy Berry + Tangy Tangerine|0|1|Kraft Foods Cadbury|Trident Layers|Juicy Berry + Tangy Tangerine|Introducing new Trident Layers (TM). It's much more than gum. It's a gumwich (TM)! Try Citrus sandwiched between two layers Strawberry. Find out what Apple stacked on Pineapple stacked on Apple tastes like. As if chewing Trident® wasn't good enough, now happy comes in layers.|Do not open around friends, family, and the neighbors down the street.  They'll all want a piece.|United States|0|trident_layers_juicy_berry_tangy_tangerine.png</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="str">
         <f>CONCATENATE(Sheet1!A8,"|",Sheet1!B8,"|",Sheet1!C8,"|",Sheet1!D8,"|",Sheet1!E8,"|",Sheet1!F8,"|",Sheet1!G8,"|",Sheet1!H8,"|",Sheet1!I8,"|",Sheet1!J8,"|",Sheet1!K8,"|",Sheet1!L8)</f>
-        <v>trident_vitality_zen|Trident Vitality Zen|0|1|Kraft Foods Cadburry|Trident Vitality|Zen|A smooth mint and vanilla flavor with a hint of Green Tea||United States|0|trident_vitality_zen.png</v>
+        <v>trident_vitality_zen|Trident Vitality Zen|0|1|Kraft Foods Cadbury|Trident Vitality|Zen|A smooth mint and vanilla flavor with a hint of Green Tea||United States|0|trident_vitality_zen.png</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="str">
         <f>CONCATENATE(Sheet1!A9,"|",Sheet1!B9,"|",Sheet1!C9,"|",Sheet1!D9,"|",Sheet1!E9,"|",Sheet1!F9,"|",Sheet1!G9,"|",Sheet1!H9,"|",Sheet1!I9,"|",Sheet1!J9,"|",Sheet1!K9,"|",Sheet1!L9)</f>
-        <v>trident_vitality_balance|Trident Vitality Balance|0|1|Kraft Foods Cadburry|Trident Vitality|Balance|A zingy pomegranate and tangerine flavor blend with Antioxidant Vitamin C||United States|0|trident_vitality_balance.png</v>
+        <v>trident_vitality_balance|Trident Vitality Balance|0|1|Kraft Foods Cadbury|Trident Vitality|Balance|A zingy pomegranate and tangerine flavor blend with Antioxidant Vitamin C||United States|0|trident_vitality_balance.png</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="str">
         <f>CONCATENATE(Sheet1!A10,"|",Sheet1!B10,"|",Sheet1!C10,"|",Sheet1!D10,"|",Sheet1!E10,"|",Sheet1!F10,"|",Sheet1!G10,"|",Sheet1!H10,"|",Sheet1!I10,"|",Sheet1!J10,"|",Sheet1!K10,"|",Sheet1!L10)</f>
-        <v>trident_vitality_vigorate|Trident Vitality Vigorate|0|1|Kraft Foods Cadburry|Trident Vitality|Vigorate|A burt of citrus and strawberry with Vitamin C||United States|0|trident_vitality_vigorate.png</v>
+        <v>trident_vitality_vigorate|Trident Vitality Vigorate|0|1|Kraft Foods Cadbury|Trident Vitality|Vigorate|A burt of citrus and strawberry with Vitamin C||United States|0|trident_vitality_vigorate.png</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="str">
         <f>CONCATENATE(Sheet1!A11,"|",Sheet1!B11,"|",Sheet1!C11,"|",Sheet1!D11,"|",Sheet1!E11,"|",Sheet1!F11,"|",Sheet1!G11,"|",Sheet1!H11,"|",Sheet1!I11,"|",Sheet1!J11,"|",Sheet1!K11,"|",Sheet1!L11)</f>
-        <v>trident_vitality_rejuve|Trident Vitality Rejuve|0|1|Kraft Foods Cadburry|Trident Vitality|Rejuve|A rejuvenating blend of luscious mint and White Tea||United States|0|trident_vitality_rejuve.png</v>
+        <v>trident_vitality_rejuve|Trident Vitality Rejuve|0|1|Kraft Foods Cadbury|Trident Vitality|Rejuve|A rejuvenating blend of luscious mint and White Tea||United States|0|trident_vitality_rejuve.png</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="str">
         <f>CONCATENATE(Sheet1!A12,"|",Sheet1!B12,"|",Sheet1!C12,"|",Sheet1!D12,"|",Sheet1!E12,"|",Sheet1!F12,"|",Sheet1!G12,"|",Sheet1!H12,"|",Sheet1!I12,"|",Sheet1!J12,"|",Sheet1!K12,"|",Sheet1!L12)</f>
-        <v>trident_vitality_awaken|Trident Vitality Awaken|0|1|Kraft Foods Cadburry|Trident Vitality|Awaken|A peppy peppermint with a dash of Ginseng||United States|0|trident_vitality_awaken.png</v>
+        <v>trident_vitality_awaken|Trident Vitality Awaken|0|1|Kraft Foods Cadbury|Trident Vitality|Awaken|A peppy peppermint with a dash of Ginseng||United States|0|trident_vitality_awaken.png</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="str">
         <f>CONCATENATE(Sheet1!A13,"|",Sheet1!B13,"|",Sheet1!C13,"|",Sheet1!D13,"|",Sheet1!E13,"|",Sheet1!F13,"|",Sheet1!G13,"|",Sheet1!H13,"|",Sheet1!I13,"|",Sheet1!J13,"|",Sheet1!K13,"|",Sheet1!L13)</f>
-        <v>trident_extra_care_spearmint|Trident Extra Care Spearmint|0|1|Kraft Foods Cadburry|Trident Extra Care|Spearmint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_spearmint.png</v>
+        <v>trident_extra_care_spearmint|Trident Extra Care Spearmint|0|1|Kraft Foods Cadbury|Trident Extra Care|Spearmint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_spearmint.png</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="str">
         <f>CONCATENATE(Sheet1!A14,"|",Sheet1!B14,"|",Sheet1!C14,"|",Sheet1!D14,"|",Sheet1!E14,"|",Sheet1!F14,"|",Sheet1!G14,"|",Sheet1!H14,"|",Sheet1!I14,"|",Sheet1!J14,"|",Sheet1!K14,"|",Sheet1!L14)</f>
-        <v>trident_extra_care_peppermint|Trident Extra Care Peppermint|0|1|Kraft Foods Cadburry|Trident Extra Care|Peppermint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_peppermint.png</v>
+        <v>trident_extra_care_peppermint|Trident Extra Care Peppermint|0|1|Kraft Foods Cadbury|Trident Extra Care|Peppermint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_peppermint.png</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="str">
         <f>CONCATENATE(Sheet1!A15,"|",Sheet1!B15,"|",Sheet1!C15,"|",Sheet1!D15,"|",Sheet1!E15,"|",Sheet1!F15,"|",Sheet1!G15,"|",Sheet1!H15,"|",Sheet1!I15,"|",Sheet1!J15,"|",Sheet1!K15,"|",Sheet1!L15)</f>
-        <v>trident_extra_care_cool_mint|Trident Extra Care Cool Mint|0|1|Kraft Foods Cadburry|Trident Extra Care|Cool Mint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_cool_mint.png</v>
+        <v>trident_extra_care_cool_mint|Trident Extra Care Cool Mint|0|1|Kraft Foods Cadbury|Trident Extra Care|Cool Mint|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_cool_mint.png</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="str">
         <f>CONCATENATE(Sheet1!A16,"|",Sheet1!B16,"|",Sheet1!C16,"|",Sheet1!D16,"|",Sheet1!E16,"|",Sheet1!F16,"|",Sheet1!G16,"|",Sheet1!H16,"|",Sheet1!I16,"|",Sheet1!J16,"|",Sheet1!K16,"|",Sheet1!L16)</f>
-        <v>trident_extra_care_cool_citrus|Trident Extra Care Cool Citrus|0|1|Kraft Foods Cadburry|Trident Extra Care|Cool Citrus|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_cool_citrus.jpg</v>
+        <v>trident_extra_care_cool_citrus|Trident Extra Care Cool Citrus|0|1|Kraft Foods Cadbury|Trident Extra Care|Cool Citrus|Strengthens and rebuilds teeth|After eating, plaque acids can wreak havoc on tooth enamel. And that can spell trouble with a capital C-A-V-I-T-Y. But when you chew Trident Xtra Care (R), the ingredient, Recaldent (R), a unique form of calcium, is absorbed right into the tooth, strengthening areas attacked by plaque acids. The result is tooth enamel that's harder and less vulnerable to future damage.|United States|0|trident_extra_care_cool_citrus.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="str">
         <f>CONCATENATE(Sheet1!A17,"|",Sheet1!B17,"|",Sheet1!C17,"|",Sheet1!D17,"|",Sheet1!E17,"|",Sheet1!F17,"|",Sheet1!G17,"|",Sheet1!H17,"|",Sheet1!I17,"|",Sheet1!J17,"|",Sheet1!K17,"|",Sheet1!L17)</f>
-        <v>trident_splash_orange_swirl|Trident Splash Orange Swirl|012546673358|1|Kraft Foods Cadburry|Trident Splash|Orange Swirl|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_orange_swirl.jpg</v>
+        <v>trident_splash_orange_swirl|Trident Splash Orange Swirl|012546673358|1|Kraft Foods Cadbury|Trident Splash|Orange Swirl|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_orange_swirl.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>CONCATENATE(Sheet1!A18,"|",Sheet1!B18,"|",Sheet1!C18,"|",Sheet1!D18,"|",Sheet1!E18,"|",Sheet1!F18,"|",Sheet1!G18,"|",Sheet1!H18,"|",Sheet1!I18,"|",Sheet1!J18,"|",Sheet1!K18,"|",Sheet1!L18)</f>
-        <v>trident_splash_pucker_me_berry|Trident Splash Pucker Me Berry|012546610452|1|Kraft Foods Cadburry|Trident Splash|Pucker Me Berry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_pucker_me_berry.jpg</v>
+        <v>trident_splash_pucker_me_berry|Trident Splash Pucker Me Berry|012546610452|1|Kraft Foods Cadbury|Trident Splash|Pucker Me Berry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_pucker_me_berry.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f>CONCATENATE(Sheet1!A19,"|",Sheet1!B19,"|",Sheet1!C19,"|",Sheet1!D19,"|",Sheet1!E19,"|",Sheet1!F19,"|",Sheet1!G19,"|",Sheet1!H19,"|",Sheet1!I19,"|",Sheet1!J19,"|",Sheet1!K19,"|",Sheet1!L19)</f>
-        <v>trident_splash_peppermint_swirl|Trident Splash Peppermint Swirl|012546671279|1|Kraft Foods Cadburry|Trident Splash|Peppermint Swirl|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_peppermint_swirl.jpg</v>
+        <v>trident_splash_peppermint_swirl|Trident Splash Peppermint Swirl|012546671279|1|Kraft Foods Cadbury|Trident Splash|Peppermint Swirl|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_peppermint_swirl.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f>CONCATENATE(Sheet1!A20,"|",Sheet1!B20,"|",Sheet1!C20,"|",Sheet1!D20,"|",Sheet1!E20,"|",Sheet1!F20,"|",Sheet1!G20,"|",Sheet1!H20,"|",Sheet1!I20,"|",Sheet1!J20,"|",Sheet1!K20,"|",Sheet1!L20)</f>
-        <v>trident_splash_strawberry_lime|Trident Splash Strawberry Lime|012546671231|1|Kraft Foods Cadburry|Trident Splash|Strawberry Lime|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_strawberry_lime.jpg</v>
+        <v>trident_splash_strawberry_lime|Trident Splash Strawberry Lime|012546671231|1|Kraft Foods Cadbury|Trident Splash|Strawberry Lime|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_strawberry_lime.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f>CONCATENATE(Sheet1!A21,"|",Sheet1!B21,"|",Sheet1!C21,"|",Sheet1!D21,"|",Sheet1!E21,"|",Sheet1!F21,"|",Sheet1!G21,"|",Sheet1!H21,"|",Sheet1!I21,"|",Sheet1!J21,"|",Sheet1!K21,"|",Sheet1!L21)</f>
-        <v>trident_splash_apple_rasberry|Trident Splash Apple Rasberry|0|1|Kraft Foods Cadburry|Trident Splash|Apple Rasberry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_apple_rasberry.jpg</v>
+        <v>trident_splash_apple_rasberry|Trident Splash Apple Rasberry|0|1|Kraft Foods Cadbury|Trident Splash|Apple Rasberry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_apple_rasberry.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>CONCATENATE(Sheet1!A22,"|",Sheet1!B22,"|",Sheet1!C22,"|",Sheet1!D22,"|",Sheet1!E22,"|",Sheet1!F22,"|",Sheet1!G22,"|",Sheet1!H22,"|",Sheet1!I22,"|",Sheet1!J22,"|",Sheet1!K22,"|",Sheet1!L22)</f>
-        <v>trident_splash_citrus_blackberry|Trident Splash Citrus Blackberry|012546673624|1|Kraft Foods Cadburry|Trident Splash|Citrus Blackberry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_citrus_blackberry.jpg</v>
+        <v>trident_splash_citrus_blackberry|Trident Splash Citrus Blackberry|012546673624|1|Kraft Foods Cadbury|Trident Splash|Citrus Blackberry|First, there's a punch of crunchy. Then, there's an indulgent liquid-filled center. And finally an understanding washes over you; this gum is no work and all play. As a result, your mouth realizes it is truly alive.|Sugar-free treat when you want something sweet.  5 or less calories per serving.  Flavor filled, but sugar free|United States|0|trident_splash_citrus_blackberry.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f>CONCATENATE(Sheet1!A23,"|",Sheet1!B23,"|",Sheet1!C23,"|",Sheet1!D23,"|",Sheet1!E23,"|",Sheet1!F23,"|",Sheet1!G23,"|",Sheet1!H23,"|",Sheet1!I23,"|",Sheet1!J23,"|",Sheet1!K23,"|",Sheet1!L23)</f>
-        <v>trident_wintergreen|Trident Wintergreen|0|1|Kraft Foods Cadburry|Trident|Wintergreen|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_wintergreen.png</v>
+        <v>trident_wintergreen|Trident Wintergreen|0|1|Kraft Foods Cadbury|Trident|Wintergreen|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_wintergreen.png</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>CONCATENATE(Sheet1!A24,"|",Sheet1!B24,"|",Sheet1!C24,"|",Sheet1!D24,"|",Sheet1!E24,"|",Sheet1!F24,"|",Sheet1!G24,"|",Sheet1!H24,"|",Sheet1!I24,"|",Sheet1!J24,"|",Sheet1!K24,"|",Sheet1!L24)</f>
-        <v>trident_strawberry_twist|Trident Strawberry Twist|0|1|Kraft Foods Cadburry|Trident|Strawberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_strawberry_twist.png</v>
+        <v>trident_strawberry_twist|Trident Strawberry Twist|0|1|Kraft Foods Cadbury|Trident|Strawberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_strawberry_twist.png</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>CONCATENATE(Sheet1!A25,"|",Sheet1!B25,"|",Sheet1!C25,"|",Sheet1!D25,"|",Sheet1!E25,"|",Sheet1!F25,"|",Sheet1!G25,"|",Sheet1!H25,"|",Sheet1!I25,"|",Sheet1!J25,"|",Sheet1!K25,"|",Sheet1!L25)</f>
-        <v>trident_cinnamon|Trident Cinnamon|0|1|Kraft Foods Cadburry|Trident|Cinnamon|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_cinnamon.png</v>
+        <v>trident_cinnamon|Trident Cinnamon|0|1|Kraft Foods Cadbury|Trident|Cinnamon|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_cinnamon.png</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>CONCATENATE(Sheet1!A26,"|",Sheet1!B26,"|",Sheet1!C26,"|",Sheet1!D26,"|",Sheet1!E26,"|",Sheet1!F26,"|",Sheet1!G26,"|",Sheet1!H26,"|",Sheet1!I26,"|",Sheet1!J26,"|",Sheet1!K26,"|",Sheet1!L26)</f>
-        <v>trident_bubblegum|Trident Bubblegum|012546615563|1|Kraft Foods Cadburry|Trident|Bubblegum|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_bubblegum.png</v>
+        <v>trident_bubblegum|Trident Bubblegum|012546615563|1|Kraft Foods Cadbury|Trident|Bubblegum|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_bubblegum.png</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f>CONCATENATE(Sheet1!A27,"|",Sheet1!B27,"|",Sheet1!C27,"|",Sheet1!D27,"|",Sheet1!E27,"|",Sheet1!F27,"|",Sheet1!G27,"|",Sheet1!H27,"|",Sheet1!I27,"|",Sheet1!J27,"|",Sheet1!K27,"|",Sheet1!L27)</f>
-        <v>trident_minty_sweet_twist|Trident Minty Sweet Twist|0|1|Kraft Foods Cadburry|Trident|Minty Sweet Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_minty_sweet_twist.png</v>
+        <v>trident_minty_sweet_twist|Trident Minty Sweet Twist|0|1|Kraft Foods Cadbury|Trident|Minty Sweet Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_minty_sweet_twist.png</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f>CONCATENATE(Sheet1!A28,"|",Sheet1!B28,"|",Sheet1!C28,"|",Sheet1!D28,"|",Sheet1!E28,"|",Sheet1!F28,"|",Sheet1!G28,"|",Sheet1!H28,"|",Sheet1!I28,"|",Sheet1!J28,"|",Sheet1!K28,"|",Sheet1!L28)</f>
-        <v>trident_original_flavor|Trident Original Flavor|0|1|Kraft Foods Cadburry|Trident|Original Flavor|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_original_flavor.png</v>
+        <v>trident_original_flavor|Trident Original Flavor|0|1|Kraft Foods Cadbury|Trident|Original Flavor|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_original_flavor.png</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>CONCATENATE(Sheet1!A29,"|",Sheet1!B29,"|",Sheet1!C29,"|",Sheet1!D29,"|",Sheet1!E29,"|",Sheet1!F29,"|",Sheet1!G29,"|",Sheet1!H29,"|",Sheet1!I29,"|",Sheet1!J29,"|",Sheet1!K29,"|",Sheet1!L29)</f>
-        <v>trident_passionberry_twist|Trident Passionberry Twist|0|1|Kraft Foods Cadburry|Trident|Passionberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_passionberry_twist.png</v>
+        <v>trident_passionberry_twist|Trident Passionberry Twist|0|1|Kraft Foods Cadbury|Trident|Passionberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_passionberry_twist.png</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f>CONCATENATE(Sheet1!A30,"|",Sheet1!B30,"|",Sheet1!C30,"|",Sheet1!D30,"|",Sheet1!E30,"|",Sheet1!F30,"|",Sheet1!G30,"|",Sheet1!H30,"|",Sheet1!I30,"|",Sheet1!J30,"|",Sheet1!K30,"|",Sheet1!L30)</f>
-        <v>trident_spearmint|Trident Spearmint|0|1|Kraft Foods Cadburry|Trident|Spearmint|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_spearmint.png</v>
+        <v>trident_spearmint|Trident Spearmint|0|1|Kraft Foods Cadbury|Trident|Spearmint|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_spearmint.png</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>CONCATENATE(Sheet1!A31,"|",Sheet1!B31,"|",Sheet1!C31,"|",Sheet1!D31,"|",Sheet1!E31,"|",Sheet1!F31,"|",Sheet1!G31,"|",Sheet1!H31,"|",Sheet1!I31,"|",Sheet1!J31,"|",Sheet1!K31,"|",Sheet1!L31)</f>
-        <v>trident_tropical_twist|Trident Tropical Twist|0|1|Kraft Foods Cadburry|Trident|Tropical Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_tropical_twist.png</v>
+        <v>trident_tropical_twist|Trident Tropical Twist|0|1|Kraft Foods Cadbury|Trident|Tropical Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_tropical_twist.png</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="str">
         <f>CONCATENATE(Sheet1!A32,"|",Sheet1!B32,"|",Sheet1!C32,"|",Sheet1!D32,"|",Sheet1!E32,"|",Sheet1!F32,"|",Sheet1!G32,"|",Sheet1!H32,"|",Sheet1!I32,"|",Sheet1!J32,"|",Sheet1!K32,"|",Sheet1!L32)</f>
-        <v>trident_watermelon_twist|Trident Watermelon Twist|0|1|Kraft Foods Cadburry|Trident|Watermelon Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_watermelon_twist.png</v>
+        <v>trident_watermelon_twist|Trident Watermelon Twist|0|1|Kraft Foods Cadbury|Trident|Watermelon Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_watermelon_twist.png</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="str">
         <f>CONCATENATE(Sheet1!A33,"|",Sheet1!B33,"|",Sheet1!C33,"|",Sheet1!D33,"|",Sheet1!E33,"|",Sheet1!F33,"|",Sheet1!G33,"|",Sheet1!H33,"|",Sheet1!I33,"|",Sheet1!J33,"|",Sheet1!K33,"|",Sheet1!L33)</f>
-        <v>trident_wild_blueberry_twist|Trident Wild Blueberry Twist|0|1|Kraft Foods Cadburry|Trident|Wild Blueberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_wild_blueberry_twist.png</v>
+        <v>trident_wild_blueberry_twist|Trident Wild Blueberry Twist|0|1|Kraft Foods Cadbury|Trident|Wild Blueberry Twist|Did you know Trident (R) was the original sugarless gum? It’s true, we checked the Internet. Chewing it after eating and drinking helps fight cavities, remove food particles and neutralize plaque acids. Good stuff.|Protects teeth*.  Chewing Trident® after eating cleans teeth.  Helps fight cavities.  *Chewing Trident® after eating and drinking protects teeth.|United States|0|trident_wild_blueberry_twist.png</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="str">
         <f>CONCATENATE(Sheet1!A34,"|",Sheet1!B34,"|",Sheet1!C34,"|",Sheet1!D34,"|",Sheet1!E34,"|",Sheet1!F34,"|",Sheet1!G34,"|",Sheet1!H34,"|",Sheet1!I34,"|",Sheet1!J34,"|",Sheet1!K34,"|",Sheet1!L34)</f>
-        <v>trident_white_micro_crystals|Trident White Micro Crystals|0|1|Kraft Foods Cadburry|Trident White|Micro Crystals|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_micro_crystals.png</v>
+        <v>trident_white_micro_crystals|Trident White Micro Crystals|0|1|Kraft Foods Cadbury|Trident White|Micro Crystals|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_micro_crystals.png</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f>CONCATENATE(Sheet1!A35,"|",Sheet1!B35,"|",Sheet1!C35,"|",Sheet1!D35,"|",Sheet1!E35,"|",Sheet1!F35,"|",Sheet1!G35,"|",Sheet1!H35,"|",Sheet1!I35,"|",Sheet1!J35,"|",Sheet1!K35,"|",Sheet1!L35)</f>
-        <v>trident_white_cool_mangoberry|Trident White Cool Mangoberry|0|1|Kraft Foods Cadburry|Trident White|Cool Mangoberry|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_mangoberry.jpg</v>
+        <v>trident_white_cool_mangoberry|Trident White Cool Mangoberry|0|1|Kraft Foods Cadbury|Trident White|Cool Mangoberry|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_mangoberry.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="str">
         <f>CONCATENATE(Sheet1!A36,"|",Sheet1!B36,"|",Sheet1!C36,"|",Sheet1!D36,"|",Sheet1!E36,"|",Sheet1!F36,"|",Sheet1!G36,"|",Sheet1!H36,"|",Sheet1!I36,"|",Sheet1!J36,"|",Sheet1!K36,"|",Sheet1!L36)</f>
-        <v>trident_white_peppermint|Trident White Peppermint|0|1|Kraft Foods Cadburry|Trident White|Peppermint|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_peppermint.png</v>
+        <v>trident_white_peppermint|Trident White Peppermint|0|1|Kraft Foods Cadbury|Trident White|Peppermint|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_peppermint.png</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="str">
         <f>CONCATENATE(Sheet1!A37,"|",Sheet1!B37,"|",Sheet1!C37,"|",Sheet1!D37,"|",Sheet1!E37,"|",Sheet1!F37,"|",Sheet1!G37,"|",Sheet1!H37,"|",Sheet1!I37,"|",Sheet1!J37,"|",Sheet1!K37,"|",Sheet1!L37)</f>
-        <v>trident_white_spearmint|Trident White Spearmint|0|1|Kraft Foods Cadburry|Trident White|Spearmint|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_spearmint.png</v>
+        <v>trident_white_spearmint|Trident White Spearmint|0|1|Kraft Foods Cadbury|Trident White|Spearmint|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_spearmint.png</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="str">
         <f>CONCATENATE(Sheet1!A38,"|",Sheet1!B38,"|",Sheet1!C38,"|",Sheet1!D38,"|",Sheet1!E38,"|",Sheet1!F38,"|",Sheet1!G38,"|",Sheet1!H38,"|",Sheet1!I38,"|",Sheet1!J38,"|",Sheet1!K38,"|",Sheet1!L38)</f>
-        <v>trident_white_cool_colada|Trident White Cool Colada|0|1|Kraft Foods Cadburry|Trident White|Cool Colada|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_colada.jpg</v>
+        <v>trident_white_cool_colada|Trident White Cool Colada|0|1|Kraft Foods Cadbury|Trident White|Cool Colada|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_colada.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f>CONCATENATE(Sheet1!A39,"|",Sheet1!B39,"|",Sheet1!C39,"|",Sheet1!D39,"|",Sheet1!E39,"|",Sheet1!F39,"|",Sheet1!G39,"|",Sheet1!H39,"|",Sheet1!I39,"|",Sheet1!J39,"|",Sheet1!K39,"|",Sheet1!L39)</f>
-        <v>trident_white_wintergreen|Trident White Wintergreen|0|1|Kraft Foods Cadburry|Trident White|Wintergreen|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_wintergreen.png</v>
+        <v>trident_white_wintergreen|Trident White Wintergreen|0|1|Kraft Foods Cadbury|Trident White|Wintergreen|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_wintergreen.png</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f>CONCATENATE(Sheet1!A40,"|",Sheet1!B40,"|",Sheet1!C40,"|",Sheet1!D40,"|",Sheet1!E40,"|",Sheet1!F40,"|",Sheet1!G40,"|",Sheet1!H40,"|",Sheet1!I40,"|",Sheet1!J40,"|",Sheet1!K40,"|",Sheet1!L40)</f>
-        <v>trident_white_cool_rush|Trident White Cool Rush|0|1|Kraft Foods Cadburry|Trident White|Cool Rush|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_rush.png</v>
+        <v>trident_white_cool_rush|Trident White Cool Rush|0|1|Kraft Foods Cadbury|Trident White|Cool Rush|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_rush.png</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f>CONCATENATE(Sheet1!A41,"|",Sheet1!B41,"|",Sheet1!C41,"|",Sheet1!D41,"|",Sheet1!E41,"|",Sheet1!F41,"|",Sheet1!G41,"|",Sheet1!H41,"|",Sheet1!I41,"|",Sheet1!J41,"|",Sheet1!K41,"|",Sheet1!L41)</f>
-        <v>trident_white_cinnamon_tingle|Trident White Cinnamon Tingle|0|1|Kraft Foods Cadburry|Trident White|Cinnamon Tingle|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cinnamon_tingle.jpg</v>
+        <v>trident_white_cinnamon_tingle|Trident White Cinnamon Tingle|0|1|Kraft Foods Cadbury|Trident White|Cinnamon Tingle|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cinnamon_tingle.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="str">
         <f>CONCATENATE(Sheet1!A42,"|",Sheet1!B42,"|",Sheet1!C42,"|",Sheet1!D42,"|",Sheet1!E42,"|",Sheet1!F42,"|",Sheet1!G42,"|",Sheet1!H42,"|",Sheet1!I42,"|",Sheet1!J42,"|",Sheet1!K42,"|",Sheet1!L42)</f>
-        <v>trident_white_cool_bubble|Trident White Cool Bubble|0|1|Kraft Foods Cadburry|Trident White|Cool Bubble|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_bubble.jpg</v>
+        <v>trident_white_cool_bubble|Trident White Cool Bubble|0|1|Kraft Foods Cadbury|Trident White|Cool Bubble|Ever think about what all those lattes are doing to the color of your teeth? Wake up the white and prevent stains with Trident White®. All with no bleach. No dye. And no peroxide.|Patented surfactant technology breaks down stains.  Helps prevent stains.  No use of harsh whiteners.  Clinically shown to whiten teeth|United States|0|trident_white_cool_bubble.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="str">
         <f>CONCATENATE(Sheet1!A43,"|",Sheet1!B43,"|",Sheet1!C43,"|",Sheet1!D43,"|",Sheet1!E43,"|",Sheet1!F43,"|",Sheet1!G43,"|",Sheet1!H43,"|",Sheet1!I43,"|",Sheet1!J43,"|",Sheet1!K43,"|",Sheet1!L43)</f>
-        <v>dentyne_ice_peppermint|Dentyne Ice Peppermint|0|1|Kraft Foods Cadburry|Dentyne Ice|Peppermint|Stay on top of your game with a flavor that's classic and timeless.||United States|0|dentyne_ice_peppermint.png</v>
+        <v>dentyne_ice_peppermint|Dentyne Ice Peppermint|0|1|Kraft Foods Cadbury|Dentyne Ice|Peppermint|Stay on top of your game with a flavor that's classic and timeless.||United States|0|dentyne_ice_peppermint.png</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="str">
         <f>CONCATENATE(Sheet1!A44,"|",Sheet1!B44,"|",Sheet1!C44,"|",Sheet1!D44,"|",Sheet1!E44,"|",Sheet1!F44,"|",Sheet1!G44,"|",Sheet1!H44,"|",Sheet1!I44,"|",Sheet1!J44,"|",Sheet1!K44,"|",Sheet1!L44)</f>
-        <v>dentyne_ice_spearmint|Dentyne Ice Spearmint|0|1|Kraft Foods Cadburry|Dentyne Ice|Spearmint|Show your true colors with a laid-back minty taste.||United States|0|dentyne_ice_spearmint.png</v>
+        <v>dentyne_ice_spearmint|Dentyne Ice Spearmint|0|1|Kraft Foods Cadbury|Dentyne Ice|Spearmint|Show your true colors with a laid-back minty taste.||United States|0|dentyne_ice_spearmint.png</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="str">
         <f>CONCATENATE(Sheet1!A45,"|",Sheet1!B45,"|",Sheet1!C45,"|",Sheet1!D45,"|",Sheet1!E45,"|",Sheet1!F45,"|",Sheet1!G45,"|",Sheet1!H45,"|",Sheet1!I45,"|",Sheet1!J45,"|",Sheet1!K45,"|",Sheet1!L45)</f>
-        <v>dentyne_ice_arctic_chill|Dentyne Ice Arctic Chill|0|1|Kraft Foods Cadburry|Dentyne Ice|Arctic Chill|Before introducing yourself, get intense freshness from a bold, icy flavor.||United States|0|dentyne_ice_arctic_chill.png</v>
+        <v>dentyne_ice_arctic_chill|Dentyne Ice Arctic Chill|0|1|Kraft Foods Cadbury|Dentyne Ice|Arctic Chill|Before introducing yourself, get intense freshness from a bold, icy flavor.||United States|0|dentyne_ice_arctic_chill.png</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="str">
         <f>CONCATENATE(Sheet1!A46,"|",Sheet1!B46,"|",Sheet1!C46,"|",Sheet1!D46,"|",Sheet1!E46,"|",Sheet1!F46,"|",Sheet1!G46,"|",Sheet1!H46,"|",Sheet1!I46,"|",Sheet1!J46,"|",Sheet1!K46,"|",Sheet1!L46)</f>
-        <v>dentyne_ice_mint_frost|Dentyne Ice Mint Frost|0|1|Kraft Foods Cadburry|Dentyne Ice|Mint Frost|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_frost.png</v>
+        <v>dentyne_ice_mint_frost|Dentyne Ice Mint Frost|0|1|Kraft Foods Cadbury|Dentyne Ice|Mint Frost|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_frost.png</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="str">
         <f>CONCATENATE(Sheet1!A47,"|",Sheet1!B47,"|",Sheet1!C47,"|",Sheet1!D47,"|",Sheet1!E47,"|",Sheet1!F47,"|",Sheet1!G47,"|",Sheet1!H47,"|",Sheet1!I47,"|",Sheet1!J47,"|",Sheet1!K47,"|",Sheet1!L47)</f>
-        <v>dentyne_fire_spicy_cinnamon|Dentyne Fire Spicy Cinnamon|0|1|Kraft Foods Cadburry|Dentyne Fire|Spicy Cinnamon|Feelin' spicy? Turn up the heat with strong, hot cinnamon.||United States|0|dentyne_fire_spicy_cinnamon.png</v>
+        <v>dentyne_fire_spicy_cinnamon|Dentyne Fire Spicy Cinnamon|0|1|Kraft Foods Cadbury|Dentyne Fire|Spicy Cinnamon|Feelin' spicy? Turn up the heat with strong, hot cinnamon.||United States|0|dentyne_fire_spicy_cinnamon.png</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="str">
         <f>CONCATENATE(Sheet1!A48,"|",Sheet1!B48,"|",Sheet1!C48,"|",Sheet1!D48,"|",Sheet1!E48,"|",Sheet1!F48,"|",Sheet1!G48,"|",Sheet1!H48,"|",Sheet1!I48,"|",Sheet1!J48,"|",Sheet1!K48,"|",Sheet1!L48)</f>
-        <v>dentyne_pure_mint_with_melon|Dentyne Pure Mint with Melon|0|1|Kraft Foods Cadburry|Dentyne Pure|Mint with Melon|Dentyne Pure Mint with  Melon Accents With Neutra Fresh|Purify your breath with cool, fruity refreshment.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_melon.png</v>
+        <v>dentyne_pure_mint_with_melon|Dentyne Pure Mint with Melon|0|1|Kraft Foods Cadbury|Dentyne Pure|Mint with Melon|Dentyne Pure Mint with  Melon Accents With Neutra Fresh|Purify your breath with cool, fruity refreshment.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_melon.png</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="str">
         <f>CONCATENATE(Sheet1!A49,"|",Sheet1!B49,"|",Sheet1!C49,"|",Sheet1!D49,"|",Sheet1!E49,"|",Sheet1!F49,"|",Sheet1!G49,"|",Sheet1!H49,"|",Sheet1!I49,"|",Sheet1!J49,"|",Sheet1!K49,"|",Sheet1!L49)</f>
-        <v>dentyne_pure_mint_with_herbal|Dentyne Pure Mint with Herbal|0|1|Kraft Foods Cadburry|Dentyne Pure|Mint with Herbal|Dentyne Pure Mint with Herbal Accents With Neutra Fresh|Purify your breath deliciously.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_herbal.png</v>
+        <v>dentyne_pure_mint_with_herbal|Dentyne Pure Mint with Herbal|0|1|Kraft Foods Cadbury|Dentyne Pure|Mint with Herbal|Dentyne Pure Mint with Herbal Accents With Neutra Fresh|Purify your breath deliciously.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_herbal.png</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="str">
         <f>CONCATENATE(Sheet1!A50,"|",Sheet1!B50,"|",Sheet1!C50,"|",Sheet1!D50,"|",Sheet1!E50,"|",Sheet1!F50,"|",Sheet1!G50,"|",Sheet1!H50,"|",Sheet1!I50,"|",Sheet1!J50,"|",Sheet1!K50,"|",Sheet1!L50)</f>
-        <v>dentyne_pure_mint_with_citrus|Dentyne Pure Mint with Citrus|0|1|Kraft Foods Cadburry|Dentyne Pure|Mint with Citrus|Dentyne Pure Mint with Citrus Accents With Neutra Fresh|Purify your breath with a minty, citrust blast.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_citrus.png</v>
+        <v>dentyne_pure_mint_with_citrus|Dentyne Pure Mint with Citrus|0|1|Kraft Foods Cadbury|Dentyne Pure|Mint with Citrus|Dentyne Pure Mint with Citrus Accents With Neutra Fresh|Purify your breath with a minty, citrust blast.  Naturally and artificially flavored Sugar Free Gum.|United States|0|dentyne_pure_mint_with_citrus.png</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="str">
         <f>CONCATENATE(Sheet1!A51,"|",Sheet1!B51,"|",Sheet1!C51,"|",Sheet1!D51,"|",Sheet1!E51,"|",Sheet1!F51,"|",Sheet1!G51,"|",Sheet1!H51,"|",Sheet1!I51,"|",Sheet1!J51,"|",Sheet1!K51,"|",Sheet1!L51)</f>
-        <v>stride_spark_kinetic_fruit|Stride Spark Kinetic Fruit|0|1|Kraft Foods Cadburry|Stride Spark|Kinetic Fruit|?||United States|0|stride_spark_kinetic_fruit.jpg</v>
+        <v>stride_spark_kinetic_fruit|Stride Spark Kinetic Fruit|0|1|Kraft Foods Cadbury|Stride Spark|Kinetic Fruit|?||United States|0|stride_spark_kinetic_fruit.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="str">
         <f>CONCATENATE(Sheet1!A52,"|",Sheet1!B52,"|",Sheet1!C52,"|",Sheet1!D52,"|",Sheet1!E52,"|",Sheet1!F52,"|",Sheet1!G52,"|",Sheet1!H52,"|",Sheet1!I52,"|",Sheet1!J52,"|",Sheet1!K52,"|",Sheet1!L52)</f>
-        <v>stride_spark_kinetic_mint|Stride Spark Kinetic Mint|0|1|Kraft Foods Cadburry|Stride Spark|Kinetic Mint|?||United States|0|stride_spark_kinetic_mint.jpg</v>
+        <v>stride_spark_kinetic_mint|Stride Spark Kinetic Mint|0|1|Kraft Foods Cadbury|Stride Spark|Kinetic Mint|?||United States|0|stride_spark_kinetic_mint.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="str">
         <f>CONCATENATE(Sheet1!A53,"|",Sheet1!B53,"|",Sheet1!C53,"|",Sheet1!D53,"|",Sheet1!E53,"|",Sheet1!F53,"|",Sheet1!G53,"|",Sheet1!H53,"|",Sheet1!I53,"|",Sheet1!J53,"|",Sheet1!K53,"|",Sheet1!L53)</f>
-        <v>stride_spark_kinetic_berry|Stride Spark Kinetic Berry|0|1|Kraft Foods Cadburry|Stride Spark|Kinetic Berry|?||United States|0|stride_spark_kinetic_berry.jpg</v>
+        <v>stride_spark_kinetic_berry|Stride Spark Kinetic Berry|0|1|Kraft Foods Cadbury|Stride Spark|Kinetic Berry|?||United States|0|stride_spark_kinetic_berry.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="str">
         <f>CONCATENATE(Sheet1!A54,"|",Sheet1!B54,"|",Sheet1!C54,"|",Sheet1!D54,"|",Sheet1!E54,"|",Sheet1!F54,"|",Sheet1!G54,"|",Sheet1!H54,"|",Sheet1!I54,"|",Sheet1!J54,"|",Sheet1!K54,"|",Sheet1!L54)</f>
-        <v>stride_shift_berry_to_mint|Stride Shift Berry to Mint|012546682022|1|Kraft Foods Cadburry|Stride Shift|Berry to Mint|?||United States|0|stride_shift_berry_to_mint.jpg</v>
+        <v>stride_shift_berry_to_mint|Stride Shift Berry to Mint|012546682022|1|Kraft Foods Cadbury|Stride Shift|Berry to Mint|?||United States|0|stride_shift_berry_to_mint.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="str">
         <f>CONCATENATE(Sheet1!A55,"|",Sheet1!B55,"|",Sheet1!C55,"|",Sheet1!D55,"|",Sheet1!E55,"|",Sheet1!F55,"|",Sheet1!G55,"|",Sheet1!H55,"|",Sheet1!I55,"|",Sheet1!J55,"|",Sheet1!K55,"|",Sheet1!L55)</f>
-        <v>stride_shift_citrus_to_mint|Stride Shift Citrus to Mint|0|1|Kraft Foods Cadburry|Stride Shift|Citrus to Mint|?||United States|0|stride_shift_citrus_to_mint.jpg</v>
+        <v>stride_shift_citrus_to_mint|Stride Shift Citrus to Mint|0|1|Kraft Foods Cadbury|Stride Shift|Citrus to Mint|?||United States|0|stride_shift_citrus_to_mint.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="str">
         <f>CONCATENATE(Sheet1!A56,"|",Sheet1!B56,"|",Sheet1!C56,"|",Sheet1!D56,"|",Sheet1!E56,"|",Sheet1!F56,"|",Sheet1!G56,"|",Sheet1!H56,"|",Sheet1!I56,"|",Sheet1!J56,"|",Sheet1!K56,"|",Sheet1!L56)</f>
-        <v>stride_2_winterblue|Stride 2.0 Winterblue|0|1|Kraft Foods Cadburry|Stride 2.0|Winterblue|?||United States|0|stride_2_winterblue.jpg</v>
+        <v>stride_2_winterblue|Stride 2.0 Winterblue|0|1|Kraft Foods Cadbury|Stride 2.0|Winterblue|?||United States|0|stride_2_winterblue.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="str">
         <f>CONCATENATE(Sheet1!A57,"|",Sheet1!B57,"|",Sheet1!C57,"|",Sheet1!D57,"|",Sheet1!E57,"|",Sheet1!F57,"|",Sheet1!G57,"|",Sheet1!H57,"|",Sheet1!I57,"|",Sheet1!J57,"|",Sheet1!K57,"|",Sheet1!L57)</f>
-        <v>stride_2_uber_bubble|Stride 2.0 Uber Bubble|0|1|Kraft Foods Cadburry|Stride 2.0|Uber Bubble|?||United States|0|stride_2_uber_bubble.jpg</v>
+        <v>stride_2_uber_bubble|Stride 2.0 Uber Bubble|0|1|Kraft Foods Cadbury|Stride 2.0|Uber Bubble|?||United States|0|stride_2_uber_bubble.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="str">
         <f>CONCATENATE(Sheet1!A58,"|",Sheet1!B58,"|",Sheet1!C58,"|",Sheet1!D58,"|",Sheet1!E58,"|",Sheet1!F58,"|",Sheet1!G58,"|",Sheet1!H58,"|",Sheet1!I58,"|",Sheet1!J58,"|",Sheet1!K58,"|",Sheet1!L58)</f>
-        <v>stride_2_sweet_peppermint|Stride 2.0 Sweet Peppermint|0|1|Kraft Foods Cadburry|Stride 2.0|Sweet Peppermint|?||United States|0|stride_2_sweet_peppermint.jpg</v>
+        <v>stride_2_sweet_peppermint|Stride 2.0 Sweet Peppermint|0|1|Kraft Foods Cadbury|Stride 2.0|Sweet Peppermint|?||United States|0|stride_2_sweet_peppermint.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="str">
         <f>CONCATENATE(Sheet1!A59,"|",Sheet1!B59,"|",Sheet1!C59,"|",Sheet1!D59,"|",Sheet1!E59,"|",Sheet1!F59,"|",Sheet1!G59,"|",Sheet1!H59,"|",Sheet1!I59,"|",Sheet1!J59,"|",Sheet1!K59,"|",Sheet1!L59)</f>
-        <v>stride_2_sweet_cinnamon|Stride 2.0 Sweet Cinnamon|0|1|Kraft Foods Cadburry|Stride 2.0|Sweet Cinnamon|?||United States|0|stride_2_sweet_cinnamon.jpg</v>
+        <v>stride_2_sweet_cinnamon|Stride 2.0 Sweet Cinnamon|0|1|Kraft Foods Cadbury|Stride 2.0|Sweet Cinnamon|?||United States|0|stride_2_sweet_cinnamon.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="str">
         <f>CONCATENATE(Sheet1!A60,"|",Sheet1!B60,"|",Sheet1!C60,"|",Sheet1!D60,"|",Sheet1!E60,"|",Sheet1!F60,"|",Sheet1!G60,"|",Sheet1!H60,"|",Sheet1!I60,"|",Sheet1!J60,"|",Sheet1!K60,"|",Sheet1!L60)</f>
-        <v>stride_2_sweet_berry|Stride 2.0 Sweet Berry|0|1|Kraft Foods Cadburry|Stride 2.0|Sweet Berry|?||United States|0|stride_2_sweet_berry.jpg</v>
+        <v>stride_2_sweet_berry|Stride 2.0 Sweet Berry|0|1|Kraft Foods Cadbury|Stride 2.0|Sweet Berry|?||United States|0|stride_2_sweet_berry.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="str">
         <f>CONCATENATE(Sheet1!A61,"|",Sheet1!B61,"|",Sheet1!C61,"|",Sheet1!D61,"|",Sheet1!E61,"|",Sheet1!F61,"|",Sheet1!G61,"|",Sheet1!H61,"|",Sheet1!I61,"|",Sheet1!J61,"|",Sheet1!K61,"|",Sheet1!L61)</f>
-        <v>stride_2_sweet_mint|Stride 2.0 Sweet Mint|0|1|Kraft Foods Cadburry|Stride 2.0|Sweet Mint|?||United States|0|stride_2_sweet_mint.jpg</v>
+        <v>stride_2_sweet_mint|Stride 2.0 Sweet Mint|0|1|Kraft Foods Cadbury|Stride 2.0|Sweet Mint|?||United States|0|stride_2_sweet_mint.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="str">
         <f>CONCATENATE(Sheet1!A62,"|",Sheet1!B62,"|",Sheet1!C62,"|",Sheet1!D62,"|",Sheet1!E62,"|",Sheet1!F62,"|",Sheet1!G62,"|",Sheet1!H62,"|",Sheet1!I62,"|",Sheet1!J62,"|",Sheet1!K62,"|",Sheet1!L62)</f>
-        <v>stride_2_spearmint|Stride 2.0 Spearmint|0|1|Kraft Foods Cadburry|Stride 2.0|Spearmint|?||United States|0|stride_2_spearmint.jpg</v>
+        <v>stride_2_spearmint|Stride 2.0 Spearmint|0|1|Kraft Foods Cadbury|Stride 2.0|Spearmint|?||United States|0|stride_2_spearmint.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="str">
         <f>CONCATENATE(Sheet1!A63,"|",Sheet1!B63,"|",Sheet1!C63,"|",Sheet1!D63,"|",Sheet1!E63,"|",Sheet1!F63,"|",Sheet1!G63,"|",Sheet1!H63,"|",Sheet1!I63,"|",Sheet1!J63,"|",Sheet1!K63,"|",Sheet1!L63)</f>
-        <v>stride_2_nonstop_mint|Stride 2.0 Nonstop Mint|0|1|Kraft Foods Cadburry|Stride 2.0|Nonstop Mint|?||United States|0|stride_2_nonstop_mint.jpg</v>
+        <v>stride_2_nonstop_mint|Stride 2.0 Nonstop Mint|0|1|Kraft Foods Cadbury|Stride 2.0|Nonstop Mint|?||United States|0|stride_2_nonstop_mint.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="str">
         <f>CONCATENATE(Sheet1!A64,"|",Sheet1!B64,"|",Sheet1!C64,"|",Sheet1!D64,"|",Sheet1!E64,"|",Sheet1!F64,"|",Sheet1!G64,"|",Sheet1!H64,"|",Sheet1!I64,"|",Sheet1!J64,"|",Sheet1!K64,"|",Sheet1!L64)</f>
-        <v>stride_2_forever_fruit|Stride 2.0 Forever Fruit|0|1|Kraft Foods Cadburry|Stride 2.0|Forever Fruit|?||United States|0|stride_2_forever_fruit.jpg</v>
+        <v>stride_2_forever_fruit|Stride 2.0 Forever Fruit|0|1|Kraft Foods Cadbury|Stride 2.0|Forever Fruit|?||United States|0|stride_2_forever_fruit.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="str">
         <f>CONCATENATE(Sheet1!A65,"|",Sheet1!B65,"|",Sheet1!C65,"|",Sheet1!D65,"|",Sheet1!E65,"|",Sheet1!F65,"|",Sheet1!G65,"|",Sheet1!H65,"|",Sheet1!I65,"|",Sheet1!J65,"|",Sheet1!K65,"|",Sheet1!L65)</f>
-        <v>stride_mintacular|Stride Mintacular|0|1|Kraft Foods Cadburry|Stride|Mintacular|?||United States|0|stride_mintacular.jpg</v>
+        <v>stride_mintacular|Stride Mintacular|0|1|Kraft Foods Cadbury|Stride|Mintacular|?||United States|0|stride_mintacular.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="str">
         <f>CONCATENATE(Sheet1!A66,"|",Sheet1!B66,"|",Sheet1!C66,"|",Sheet1!D66,"|",Sheet1!E66,"|",Sheet1!F66,"|",Sheet1!G66,"|",Sheet1!H66,"|",Sheet1!I66,"|",Sheet1!J66,"|",Sheet1!K66,"|",Sheet1!L66)</f>
-        <v>stride_mega_mystery|Stride Mega Mystery|0|1|Kraft Foods Cadburry|Stride|Mega Mystery|?||United States|0|stride_mega_mystery.jpg</v>
+        <v>stride_mega_mystery|Stride Mega Mystery|0|1|Kraft Foods Cadbury|Stride|Mega Mystery|?||United States|0|stride_mega_mystery.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="str">
         <f>CONCATENATE(Sheet1!A67,"|",Sheet1!B67,"|",Sheet1!C67,"|",Sheet1!D67,"|",Sheet1!E67,"|",Sheet1!F67,"|",Sheet1!G67,"|",Sheet1!H67,"|",Sheet1!I67,"|",Sheet1!J67,"|",Sheet1!K67,"|",Sheet1!L67)</f>
-        <v>stride_whitemint|Stride Whitemint|0|1|Kraft Foods Cadburry|Stride|Whitemint|?||United States|0|stride_whitemint.jpg</v>
+        <v>stride_whitemint|Stride Whitemint|0|1|Kraft Foods Cadbury|Stride|Whitemint|?||United States|0|stride_whitemint.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="str">
         <f>CONCATENATE(Sheet1!A68,"|",Sheet1!B68,"|",Sheet1!C68,"|",Sheet1!D68,"|",Sheet1!E68,"|",Sheet1!F68,"|",Sheet1!G68,"|",Sheet1!H68,"|",Sheet1!I68,"|",Sheet1!J68,"|",Sheet1!K68,"|",Sheet1!L68)</f>
-        <v>stride_tropical_trance|Stride Tropical Trance|0|1|Kraft Foods Cadburry|Stride|Tropical Trance|?||United States|0|stride_tropical_trance.jpg</v>
+        <v>stride_tropical_trance|Stride Tropical Trance|0|1|Kraft Foods Cadbury|Stride|Tropical Trance|?||United States|0|stride_tropical_trance.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="str">
         <f>CONCATENATE(Sheet1!A69,"|",Sheet1!B69,"|",Sheet1!C69,"|",Sheet1!D69,"|",Sheet1!E69,"|",Sheet1!F69,"|",Sheet1!G69,"|",Sheet1!H69,"|",Sheet1!I69,"|",Sheet1!J69,"|",Sheet1!K69,"|",Sheet1!L69)</f>
-        <v>stride_eternal_melon|Stride Eternal Melon|0|1|Kraft Foods Cadburry|Stride|Eternal Melon|?||United States|0|stride_eternal_melon.jpg</v>
+        <v>stride_eternal_melon|Stride Eternal Melon|0|1|Kraft Foods Cadbury|Stride|Eternal Melon|?||United States|0|stride_eternal_melon.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="str">
         <f>CONCATENATE(Sheet1!A70,"|",Sheet1!B70,"|",Sheet1!C70,"|",Sheet1!D70,"|",Sheet1!E70,"|",Sheet1!F70,"|",Sheet1!G70,"|",Sheet1!H70,"|",Sheet1!I70,"|",Sheet1!J70,"|",Sheet1!K70,"|",Sheet1!L70)</f>
-        <v>stride_nonstop_mint|Stride Nonstop Mint|0|0|Kraft Foods Cadburry|Stride|Nonstop Mint|?||United States|0|stride_nonstop_mint.jpg</v>
+        <v>stride_nonstop_mint|Stride Nonstop Mint|0|0|Kraft Foods Cadbury|Stride|Nonstop Mint|?||United States|0|stride_nonstop_mint.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="str">
         <f>CONCATENATE(Sheet1!A71,"|",Sheet1!B71,"|",Sheet1!C71,"|",Sheet1!D71,"|",Sheet1!E71,"|",Sheet1!F71,"|",Sheet1!G71,"|",Sheet1!H71,"|",Sheet1!I71,"|",Sheet1!J71,"|",Sheet1!K71,"|",Sheet1!L71)</f>
-        <v>stride_winterblue|Stride Winterblue|0|0|Kraft Foods Cadburry|Stride|Winterblue|?||United States|0|stride_winterblue.jpg</v>
+        <v>stride_winterblue|Stride Winterblue|0|0|Kraft Foods Cadbury|Stride|Winterblue|?||United States|0|stride_winterblue.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="str">
         <f>CONCATENATE(Sheet1!A72,"|",Sheet1!B72,"|",Sheet1!C72,"|",Sheet1!D72,"|",Sheet1!E72,"|",Sheet1!F72,"|",Sheet1!G72,"|",Sheet1!H72,"|",Sheet1!I72,"|",Sheet1!J72,"|",Sheet1!K72,"|",Sheet1!L72)</f>
-        <v>stride_spearmint|Stride Spearmint|0|0|Kraft Foods Cadburry|Stride|Spearmint|?||United States|0|stride_spearmint.jpg</v>
+        <v>stride_spearmint|Stride Spearmint|0|0|Kraft Foods Cadbury|Stride|Spearmint|?||United States|0|stride_spearmint.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="str">
         <f>CONCATENATE(Sheet1!A73,"|",Sheet1!B73,"|",Sheet1!C73,"|",Sheet1!D73,"|",Sheet1!E73,"|",Sheet1!F73,"|",Sheet1!G73,"|",Sheet1!H73,"|",Sheet1!I73,"|",Sheet1!J73,"|",Sheet1!K73,"|",Sheet1!L73)</f>
-        <v>stride_sweet_peppermint|Stride Sweet Peppermint|0|0|Kraft Foods Cadburry|Stride|Sweet Peppermint|?||United States|0|stride_sweet_peppermint.jpg</v>
+        <v>stride_sweet_peppermint|Stride Sweet Peppermint|0|0|Kraft Foods Cadbury|Stride|Sweet Peppermint|?||United States|0|stride_sweet_peppermint.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="str">
         <f>CONCATENATE(Sheet1!A74,"|",Sheet1!B74,"|",Sheet1!C74,"|",Sheet1!D74,"|",Sheet1!E74,"|",Sheet1!F74,"|",Sheet1!G74,"|",Sheet1!H74,"|",Sheet1!I74,"|",Sheet1!J74,"|",Sheet1!K74,"|",Sheet1!L74)</f>
-        <v>stride_sweet_berry|Stride Sweet Berry|0|0|Kraft Foods Cadburry|Stride|Sweet Berry|?||United States|0|stride_sweet_berry.jpg</v>
+        <v>stride_sweet_berry|Stride Sweet Berry|0|0|Kraft Foods Cadbury|Stride|Sweet Berry|?||United States|0|stride_sweet_berry.jpg</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="str">
         <f>CONCATENATE(Sheet1!A75,"|",Sheet1!B75,"|",Sheet1!C75,"|",Sheet1!D75,"|",Sheet1!E75,"|",Sheet1!F75,"|",Sheet1!G75,"|",Sheet1!H75,"|",Sheet1!I75,"|",Sheet1!J75,"|",Sheet1!K75,"|",Sheet1!L75)</f>
-        <v>stride_uber_bubble|Stride Uber Bubble|0|0|Kraft Foods Cadburry|Stride|Uber Bubble|?||United States|0|stride_uber_bubble.jpg</v>
+        <v>stride_uber_bubble|Stride Uber Bubble|0|0|Kraft Foods Cadbury|Stride|Uber Bubble|?||United States|0|stride_uber_bubble.jpg</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="str">
         <f>CONCATENATE(Sheet1!A76,"|",Sheet1!B76,"|",Sheet1!C76,"|",Sheet1!D76,"|",Sheet1!E76,"|",Sheet1!F76,"|",Sheet1!G76,"|",Sheet1!H76,"|",Sheet1!I76,"|",Sheet1!J76,"|",Sheet1!K76,"|",Sheet1!L76)</f>
-        <v>stride_sweet_cinnamon|Stride Sweet Cinnamon|0|0|Kraft Foods Cadburry|Stride|Sweet Cinnamon|?||United States|0|stride_sweet_cinnamon.jpg</v>
+        <v>stride_sweet_cinnamon|Stride Sweet Cinnamon|0|0|Kraft Foods Cadbury|Stride|Sweet Cinnamon|?||United States|0|stride_sweet_cinnamon.jpg</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="str">
         <f>CONCATENATE(Sheet1!A77,"|",Sheet1!B77,"|",Sheet1!C77,"|",Sheet1!D77,"|",Sheet1!E77,"|",Sheet1!F77,"|",Sheet1!G77,"|",Sheet1!H77,"|",Sheet1!I77,"|",Sheet1!J77,"|",Sheet1!K77,"|",Sheet1!L77)</f>
-        <v>stride_forever_fruit|Stride Forever Fruit|0|0|Kraft Foods Cadburry|Stride|Forever Fruit|?||United States|0|stride_forever_fruit.jpg</v>
+        <v>stride_forever_fruit|Stride Forever Fruit|0|0|Kraft Foods Cadbury|Stride|Forever Fruit|?||United States|0|stride_forever_fruit.jpg</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="str">
         <f>CONCATENATE(Sheet1!A78,"|",Sheet1!B78,"|",Sheet1!C78,"|",Sheet1!D78,"|",Sheet1!E78,"|",Sheet1!F78,"|",Sheet1!G78,"|",Sheet1!H78,"|",Sheet1!I78,"|",Sheet1!J78,"|",Sheet1!K78,"|",Sheet1!L78)</f>
-        <v>stride_always_mandarin|Stride Always Mandarin|0|1|Kraft Foods Cadburry|Stride|Always Mandarin|?||United States|0|stride_always_mandarin.jpg</v>
+        <v>stride_always_mandarin|Stride Always Mandarin|0|1|Kraft Foods Cadbury|Stride|Always Mandarin|?||United States|0|stride_always_mandarin.jpg</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="str">
         <f>CONCATENATE(Sheet1!A79,"|",Sheet1!B79,"|",Sheet1!C79,"|",Sheet1!D79,"|",Sheet1!E79,"|",Sheet1!F79,"|",Sheet1!G79,"|",Sheet1!H79,"|",Sheet1!I79,"|",Sheet1!J79,"|",Sheet1!K79,"|",Sheet1!L79)</f>
-        <v>adams_chiclets_fruit|Adam's Chiclets fruit|0|1|Kraft Foods Cadburry|Adam's Chiclets|fruit|?||United States|0|adams_chiclets_fruit.jpg</v>
+        <v>adams_chiclets_fruit|Adam's Chiclets fruit|0|1|Kraft Foods Cadbury|Adam's Chiclets|fruit|?||United States|0|adams_chiclets_fruit.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="str">
         <f>CONCATENATE(Sheet1!A80,"|",Sheet1!B80,"|",Sheet1!C80,"|",Sheet1!D80,"|",Sheet1!E80,"|",Sheet1!F80,"|",Sheet1!G80,"|",Sheet1!H80,"|",Sheet1!I80,"|",Sheet1!J80,"|",Sheet1!K80,"|",Sheet1!L80)</f>
-        <v>adams_chiclets_peppermint|Adam's Chiclets peppermint|0|1|Kraft Foods Cadburry|Adam's Chiclets|peppermint|?||United States|0|adams_chiclets_peppermint.jpg</v>
+        <v>adams_chiclets_peppermint|Adam's Chiclets peppermint|0|1|Kraft Foods Cadbury|Adam's Chiclets|peppermint|?||United States|0|adams_chiclets_peppermint.jpg</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="str">
         <f>CONCATENATE(Sheet1!A81,"|",Sheet1!B81,"|",Sheet1!C81,"|",Sheet1!D81,"|",Sheet1!E81,"|",Sheet1!F81,"|",Sheet1!G81,"|",Sheet1!H81,"|",Sheet1!I81,"|",Sheet1!J81,"|",Sheet1!K81,"|",Sheet1!L81)</f>
-        <v>adams_chiclets_spearmint|Adam's Chiclets spearmint|0|1|Kraft Foods Cadburry|Adam's Chiclets|spearmint|?||United States|0|adams_chiclets_spearmint.jpg</v>
+        <v>adams_chiclets_spearmint|Adam's Chiclets spearmint|0|1|Kraft Foods Cadbury|Adam's Chiclets|spearmint|?||United States|0|adams_chiclets_spearmint.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:1">
